--- a/data/trans_bre/P24_8_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_8_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,14</t>
+          <t>8,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>13,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>73,29%</t>
+          <t>10,57</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>104,28%</t>
+          <t>241,34%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>222,95%</t>
+          <t>167,42%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>274,68%</t>
+          <t>274,66%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>417,41%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>297,66%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 8,91</t>
+          <t>2,03; 11,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 8,87</t>
+          <t>0,68; 11,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 9,72</t>
+          <t>3,37; 12,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,75; 13,88</t>
+          <t>7,24; 20,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,16; 233,21</t>
+          <t>4,41; 17,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 304,47</t>
+          <t>20,73; 1049,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,11; 628,82</t>
+          <t>-5,53; 674,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>74,02; 655,7</t>
+          <t>51,1; 1203,14</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>96,55; 1517,48</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>56,72; 1143,07</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,37</t>
+          <t>11,88</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,83</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,64</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>85,72%</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>171,34%</t>
+          <t>220,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>143,47%</t>
+          <t>121,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>130,38%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3,94%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>70,06%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 11,75</t>
+          <t>4,82; 19,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 13,33</t>
+          <t>1,53; 14,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 13,19</t>
+          <t>-0,76; 11,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 6,69</t>
+          <t>-7,58; 7,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,12; 239,05</t>
+          <t>-2,2; 12,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,19; 508,79</t>
+          <t>40,37; 718,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,13; 398,08</t>
+          <t>10,64; 449,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,48; 144,71</t>
+          <t>-22,49; 568,34</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-57,55; 171,6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-25,26; 312,48</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>-5,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,84</t>
+          <t>16,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,86</t>
+          <t>16,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-23,07%</t>
+          <t>9,54</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>207,34%</t>
+          <t>-20,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>260,05%</t>
+          <t>260,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>523,13%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>134,82%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-33,51; 10,67</t>
+          <t>-47,34; 22,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 15,34</t>
+          <t>-4,27; 20,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 23,71</t>
+          <t>3,14; 31,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,65; 24,0</t>
+          <t>6,23; 30,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-91,24; 266,67</t>
+          <t>-8,49; 24,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-69,47; —</t>
+          <t>-90,38; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 1595,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-83,09; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,22</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>8,45</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>52,25%</t>
+          <t>8,24</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>140,74%</t>
+          <t>112,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>179,18%</t>
+          <t>150,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>149,38%</t>
+          <t>221,44%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>164,7%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>153,18%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 7,84</t>
+          <t>-0,46; 12,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 9,24</t>
+          <t>3,39; 10,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 10,39</t>
+          <t>4,19; 12,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,51; 10,0</t>
+          <t>3,95; 12,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 136,7</t>
+          <t>3,87; 13,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,24; 299,82</t>
+          <t>-11,56; 362,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>76,4; 364,16</t>
+          <t>49,31; 372,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>53,27; 313,26</t>
+          <t>70,35; 588,17</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>42,79; 389,52</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>46,01; 376,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P24_8_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_8_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,59</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,54</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,13</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>13,52</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>10,57</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>241,34%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>167,42%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>274,66%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>417,41%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>297,66%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.59458166693042</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.44170653278478</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.367677767367473</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>14.02776171976925</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>9.926127967233914</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>2.413377518727637</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>2.006058040845718</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>2.844683557500336</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>3.965424187200452</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>2.57391056994411</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,03; 11,25</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,68; 11,92</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3,37; 12,95</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>7,24; 20,25</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>4,41; 17,86</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>20,73; 1049,75</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-5,53; 674,98</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>51,1; 1203,14</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>96,55; 1517,48</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>56,72; 1143,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.029110783054938</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1.875842497028359</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3.56657016108799</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>7.651687774240651</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>3.931408038202323</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.2072743326199601</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.110067297569627</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.5878311991499394</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.8940087292925456</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.372095312613653</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.25329169215644</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>14.60889950129011</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>13.59148496332532</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>21.44694141651649</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>17.1727489277723</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>10.49749184979378</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>8.136509448045915</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>12.86680104969687</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>15.27048332514476</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>10.28887790606531</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>11,88</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,45</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,86</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,03</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>220,3%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>121,44%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>130,38%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>3,94%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>70,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>4,82; 19,09</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,53; 14,93</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 11,94</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,58; 7,66</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,2; 12,3</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>40,37; 718,14</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>10,64; 449,08</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-22,49; 568,34</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-57,55; 171,6</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-25,26; 312,48</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>11.87962393401089</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.620476603727903</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.746414739975088</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.5744687456874134</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>6.218088730896805</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2.203021925851457</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.7570069321352405</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.9243885312663422</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.06136096866434931</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>1.001033607133369</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-5,2</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,88</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>16,54</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>16,33</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>9,54</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-20,14%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>260,48%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>523,13%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>134,82%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>4.822308602978</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.116332806104753</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.581875556655972</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-9.013923014426087</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.5704246291291408</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.4037405584828905</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3197816456394958</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4247132166078413</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.6104932523784358</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1578015763698262</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-47,34; 22,58</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,27; 20,54</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>3,14; 31,94</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>6,23; 30,84</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-8,49; 24,52</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-90,38; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-83,09; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>19.08702343293547</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>13.23918234830862</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.15180913837149</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.939376055858815</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>13.22235258611846</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>7.181425755152484</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>3.491112146175675</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>4.622173404994192</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.52865365310685</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>3.684839191239534</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,219 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>7,21</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,17</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,01</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>8,45</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,24</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>112,67%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>150,89%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>221,44%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>164,7%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>153,18%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-5.197160650924154</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>9.183501698839754</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>16.94374793222693</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>16.55098631929746</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>9.273826703448481</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.2013555891511299</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>3.107827234777653</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>4.935910731191432</v>
+      </c>
+      <c r="K10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>1.490267222617072</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 12,05</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,39; 10,9</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4,19; 12,05</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>3,95; 12,48</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>3,87; 13,09</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-11,56; 362,73</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>49,31; 372,72</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>70,35; 588,17</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>42,79; 389,52</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>46,01; 376,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-47.33976018518102</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.501741880985793</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.729359842947404</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>6.058033368130184</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-6.549461169569692</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.9037918652951807</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="n">
+        <v>-0.787113515974855</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>22.57989440356843</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>21.12453631984812</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>32.59691918369582</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>30.70959623905036</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>22.48726243452358</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>7.207889086897318</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.818263751283113</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.731767852556662</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>8.254155493222145</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>8.359958335384494</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.126657355137912</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.314403991348448</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.966922008145382</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1.470861067375138</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>1.648100468504344</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.4553268679285102</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.225128818678722</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>3.567529549569111</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>3.105937054625671</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>3.884339072988555</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.115641706000216</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.2177895100549297</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.4699655617211248</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.3201335089569294</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.5010187874537563</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>12.05136842356954</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.83599728545824</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.15334787041556</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>12.37019958513559</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>12.8818055166226</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>3.627278752065814</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>3.273403350060571</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>5.35078171309589</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>3.505472531655912</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>3.835726097154079</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1099,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
